--- a/biology/Botanique/Dollidiniaceae/Dollidiniaceae.xlsx
+++ b/biology/Botanique/Dollidiniaceae/Dollidiniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dollidiniaceae sont une famille d'algues dinoflagellés de l’ordre des Peridiniales.
-Le genre type Dollidinium est une espèce fossile des étages géologiques Jurassique et Crétacé[2].
+Le genre type Dollidinium est une espèce fossile des étages géologiques Jurassique et Crétacé.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type † Dollidinium[2], composé du préfixe dol, tonneau, et du suffixe -din- (référence aux dinoflagellés).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type † Dollidinium, composé du préfixe dol, tonneau, et du suffixe -din- (référence aux dinoflagellés).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 janvier 2022)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 janvier 2022)
 Horologinella, Cookson &amp; Eisenack , 1962
 Horologinella biconvexa Z.C.Song, C.Q.He, Z.Qian, Z.O.Pan, G.G.Zheng &amp; Y.F.Zheng, 1984
 Selon  paramètre de Bioref « ubio » non reconnu 
